--- a/municipal/ENG/byOwnershipType/Number of registered entities by ownership type/Number of registered entities by ownership type.xlsx
+++ b/municipal/ENG/byOwnershipType/Number of registered entities by ownership type/Number of registered entities by ownership type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by ownership type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of registered entities by ownership type\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -299,11 +299,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +340,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -481,8 +490,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,16 +773,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V692"/>
+  <dimension ref="A1:V693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" style="2" customWidth="1"/>
-    <col min="2" max="13" width="10.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="2" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -780,18 +790,18 @@
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -29109,10 +29119,10 @@
         <v>23</v>
       </c>
     </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A693" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
